--- a/src/Chapter-6/案例03 对多个工作簿中的工作表分别进行分类汇总/销售表/1月.xlsx
+++ b/src/Chapter-6/案例03 对多个工作簿中的工作表分别进行分类汇总/销售表/1月.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\example\05\批量分类汇总工作簿\销售表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-6\案例03 对多个工作簿中的工作表分别进行分类汇总\销售表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AD86F3-3049-44F7-B53F-97C754F13E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB00685-FD55-43C6-9F5C-229AD2F315AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="6810" xr2:uid="{4037D46E-58EE-4FB2-9F7F-9C459473C1A4}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{4037D46E-58EE-4FB2-9F7F-9C459473C1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="销售记录表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +253,66 @@
   </si>
   <si>
     <t>销售区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,6 +860,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -807,15 +876,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -835,7 +895,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7FAC949-92D7-4071-BDFA-2E92657888CD}" name="表2" displayName="表2" ref="A1:H49" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7FAC949-92D7-4071-BDFA-2E92657888CD}" name="表2" displayName="表2" ref="A1:H49" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H49" xr:uid="{2D0679C6-7213-4D13-B677-6092783D495B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE4E2E77-B361-43E8-9E55-468E71C5A313}" name="订单编号" dataDxfId="7"/>
@@ -1152,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF0748E-2564-47C2-AC02-6C4D57B917C9}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1171,7 +1231,7 @@
     <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1256,14 @@
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1224,8 +1290,14 @@
         <f>F2-G2</f>
         <v>16800</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="6">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1252,8 +1324,14 @@
         <f t="shared" ref="H3:H49" si="1">F3-G3</f>
         <v>12450</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1280,8 +1358,14 @@
         <f t="shared" si="1"/>
         <v>1880</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="6">
+        <v>50250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1308,8 +1392,14 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="6">
+        <v>22968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1336,8 +1426,14 @@
         <f t="shared" si="1"/>
         <v>672</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1364,8 +1460,14 @@
         <f t="shared" si="1"/>
         <v>736</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="6">
+        <v>18829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1392,8 +1494,14 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="6">
+        <v>36902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1420,8 +1528,14 @@
         <f t="shared" si="1"/>
         <v>1665</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="6">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1448,8 +1562,14 @@
         <f t="shared" si="1"/>
         <v>29400</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="6">
+        <v>35516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1476,8 +1596,14 @@
         <f t="shared" si="1"/>
         <v>22410</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1504,8 +1630,14 @@
         <f t="shared" si="1"/>
         <v>12972</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="6">
+        <v>37635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1532,8 +1664,14 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="6">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1560,8 +1698,14 @@
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="6">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1733,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
